--- a/sheet_engine/test_sheets/courses.xlsx
+++ b/sheet_engine/test_sheets/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLab\Projects\curie\sheet_engine\test_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22C5985-26EB-4125-AF17-D3F8344A9368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6377078E-729D-4066-8BB5-E2E144227FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0845D0C9-195A-48D0-8DCB-A87294841801}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>NAME</t>
   </si>
@@ -50,9 +50,6 @@
     <t>GA</t>
   </si>
   <si>
-    <t>GEO MATH ENG</t>
-  </si>
-  <si>
     <t>KETA SENIOR HIGH TECHNICAL SCHOOL</t>
   </si>
   <si>
@@ -68,7 +65,19 @@
     <t>ELECTIVES_IDS</t>
   </si>
   <si>
-    <t>MATH EICT</t>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>BUS</t>
+  </si>
+  <si>
+    <t>GEO ECO EMATH GOV</t>
+  </si>
+  <si>
+    <t>FA CA BM ECO EMATH</t>
+  </si>
+  <si>
+    <t>PHY CHE EMATH BIO EICT</t>
   </si>
 </sst>
 </file>
@@ -507,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACEEBD1-89F6-4E6F-895A-1DA979A28B7C}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +667,7 @@
     </row>
     <row r="9" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -677,7 +686,7 @@
     </row>
     <row r="10" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -696,16 +705,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -717,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -728,7 +737,18 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
